--- a/Parsing_characteristis_and_photo/parsing_3dplitka/Новус 13.01.25.xlsx
+++ b/Parsing_characteristis_and_photo/parsing_3dplitka/Новус 13.01.25.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6512DC0-BAD5-4118-A7B0-DE0C2838D1CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23256" windowHeight="13176"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="286">
   <si>
     <t>Австралия</t>
   </si>
@@ -729,16 +730,172 @@
   </si>
   <si>
     <t>Fs Valentia</t>
+  </si>
+  <si>
+    <t>Узбекистан; Иран; Казахстан; ОАЭ; Австралия; Англия; Беларусь; Бельгия; Болгария; Германия; Индия; Испания; Италия; Китай; Литва; Польша; Португалия; Россия; Тунис; Турция; Украина; Хорватия; Чехия; Вьетнам</t>
+  </si>
+  <si>
+    <t>Узбекистанская плитка; Иранская плитка; Казахстанская плитка; Арабская плитка; Австралийская плитка; Английская плитка; Белорусская плитка; Бельгийская плитка; Болгарская плитка; Германская плитка; Индийская плитка; Испанская плитка; Итальянская плитка; Китайская плитка; Литовская плитка; Польская плитка; Португальская плитка; Российская плитка; Тунисская плитка; Турецкая плитка; Украинская плитка; Хорватская плитка; Чешская плитка; Вьетнамская плитка</t>
+  </si>
+  <si>
+    <t>Настенная плитка; Декор; Бордюр; Мозаика; Напольная плитка; Керамогранит; Ступени</t>
+  </si>
+  <si>
+    <t>Фасадная плитка; Тротуарная брусчатка; Декоративный кирпич; Искусственный камень; Натуральный камень; Для туалета; Для фартука; Агломератная плитка; Для улицы; Для гаража; Для коридора; Для лестницы; Для гостиной; Для бани; Для крыльца; Для цоколя; Для террасы; Для печи; Для камина; Декоративная плитка; Настенная плитка; Плитка для ванной; Для кухни; Напольная плитка; Мозаика; Керамогранит; Клинкер (ступени); Плитка для бассейна</t>
+  </si>
+  <si>
+    <t>Бетон; Галька; Гипс; Глина; Кварц; Кварц-винил; Керамика; Керамогранит; Металл; Мрамор; Натуральный гранит; ППК (Полимерно-песчаный композит); Песок; Сланец; Стекло; Травертин; Чугун; Шамотная глина</t>
+  </si>
+  <si>
+    <t>Черно-белый; Мультиколор; Розовый; Белый; Бежевый; Коричневый; Оранжевый; Желтый; Фиолетовый; Красный; Зеленый; Голубой; Синий; Серый; Черный</t>
+  </si>
+  <si>
+    <t>Противоскользящая; Лаппатированная; Полированная; 3D - объемная; Глянцевая; Матовая; Рельефная</t>
+  </si>
+  <si>
+    <t>Глянцевая; Карвинг; Лаппатированная; Матовая; Патинированная; Полированная; Сатинированная</t>
+  </si>
+  <si>
+    <t>С фруктами и едой; С посудой; С текстом; Под песок; Кракелюр; Под бамбук; С одуванчиками; Состаренная (рустик); Фотоплитка (с фотографией); С тюльпанами; С животными; Под дерево; Под кирпич; Под паркет; Фасадная; Зеркальная; Под ламинат; Под мрамор; Под камень; Под бетон; Под мозаику; Моноколор; Ёлочка; Под металл; С рисунком; Под обои; Под оникс; Под кожу; Под травертин; Под гальку; С цветами; С листьями; С дельфинами; Под ткань; С розами; Под цемент; С ракушками; С бабочками; В клетку; В полоску</t>
+  </si>
+  <si>
+    <t>Китайский; Детский; Кэжуал; Рустика; Средиземноморский; Лофт; Пэчворк; Восточный; Прованс; Марокканский; Скандинавский; Арт деко; Арабский; Английский; Классический; Кантри; Хай-тек; Греческий; Модерн; Морской; Японский; Античный; Барокко; Викторианский; Современный; Ретро; Деревенский; Плитка для бассейна</t>
+  </si>
+  <si>
+    <t>Нестандартная; Ромб; Круг; Овал; Шестиугольник (гексагон, соты); Восьмиугольник (октагон); Кабанчик; Квадрат; Прямоугольник; Треугольник</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V0; V1; V2;V3;V4 </t>
+  </si>
+  <si>
+    <t>Да;Нет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R 9; R 10;R 11;R 12;R 13 </t>
+  </si>
+  <si>
+    <t>PEI I;PEI II;PEI III;PEI IV;PEI V</t>
+  </si>
+  <si>
+    <t>Погонный метр; кв. м.; шт.; компл.</t>
+  </si>
+  <si>
+    <t>USD; EUR; RUB</t>
+  </si>
+  <si>
+    <t>URL товара</t>
+  </si>
+  <si>
+    <t>!Внимание - у нас другое! Название фабрики в 3dplitka</t>
+  </si>
+  <si>
+    <t>Наименование товара</t>
+  </si>
+  <si>
+    <t>Материал</t>
+  </si>
+  <si>
+    <t>Цветовые оттенки</t>
+  </si>
+  <si>
+    <t>Поверхность</t>
+  </si>
+  <si>
+    <t>Обработка поверхности</t>
+  </si>
+  <si>
+    <t>Количество Лиц</t>
+  </si>
+  <si>
+    <t>Вариативность цвета</t>
+  </si>
+  <si>
+    <t>Морозостойкость</t>
+  </si>
+  <si>
+    <t>Сопротивление скольжению</t>
+  </si>
+  <si>
+    <t>Износостойкость PEI</t>
+  </si>
+  <si>
+    <t>Влагопоглощаемость</t>
+  </si>
+  <si>
+    <t>штук в упаковке</t>
+  </si>
+  <si>
+    <t>кв. м. в упаковке</t>
+  </si>
+  <si>
+    <t>Вес 1 шт., кг.</t>
+  </si>
+  <si>
+    <t>Вес упаковки, кг.</t>
+  </si>
+  <si>
+    <t>Код поставщика</t>
+  </si>
+  <si>
+    <t>Артикул товара</t>
+  </si>
+  <si>
+    <t>единица измерения</t>
+  </si>
+  <si>
+    <t>Цена 3dplitka.ru</t>
+  </si>
+  <si>
+    <t>Картинка товара</t>
+  </si>
+  <si>
+    <t>Варианты выбора</t>
+  </si>
+  <si>
+    <t>Глянцевая; Карвинг; Лаппатированная; Матовая; Патинированная; Полированная; Сатинированная; Натуральная; Ректифицированная</t>
+  </si>
+  <si>
+    <t>Назначение</t>
+  </si>
+  <si>
+    <t>Основной цвет</t>
+  </si>
+  <si>
+    <t>Отражение поверхности</t>
+  </si>
+  <si>
+    <t>Обработка</t>
+  </si>
+  <si>
+    <t>Имитация</t>
+  </si>
+  <si>
+    <t>Морозоустойчивость</t>
+  </si>
+  <si>
+    <t>В упаковке</t>
+  </si>
+  <si>
+    <t>Кол-во м2 в упаковке</t>
+  </si>
+  <si>
+    <t>Толщина мм.</t>
+  </si>
+  <si>
+    <t>Вес 1 шт.</t>
+  </si>
+  <si>
+    <t>Вес упаковки</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -919,8 +1076,43 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF21282B"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF21282B"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -975,8 +1167,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9933"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9900CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1149,6 +1365,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1189,7 +1447,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1338,6 +1596,8 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="16" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="22" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="2" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1347,46 +1607,139 @@
     <xf numFmtId="1" fontId="16" fillId="4" borderId="2" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="22" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="15" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="22" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="16" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="27" fillId="4" borderId="2" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="22" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="16" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="16" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="27" fillId="4" borderId="3" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="15" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="2" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="3" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="3" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="3" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="12" borderId="2" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="15" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="2" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="3" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="3" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="16" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="15" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="15" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="17" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="13" borderId="3" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="3" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="13" borderId="3" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="13" borderId="2" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="16" applyFont="1"/>
   </cellXfs>
   <cellStyles count="34">
-    <cellStyle name="Ввод  2 3 2 2 2 41" xfId="31"/>
+    <cellStyle name="Ввод  2 3 2 2 2 41" xfId="31" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Гиперссылка" xfId="6" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2 16 3 2" xfId="1"/>
-    <cellStyle name="Обычный 2 16 3 2 173" xfId="15"/>
-    <cellStyle name="Обычный 2 16 3 2 25 17" xfId="14"/>
-    <cellStyle name="Обычный 2 16 3 2 38 2 13" xfId="11"/>
-    <cellStyle name="Обычный 2 16 3 2 38 2 13 81" xfId="20"/>
-    <cellStyle name="Обычный 2 25 2 2" xfId="2"/>
-    <cellStyle name="Обычный 2 25 2 2 168 2" xfId="16"/>
-    <cellStyle name="Обычный 2 25 2 2 168 2 47" xfId="27"/>
-    <cellStyle name="Обычный 2 25 2 2 168 2 47 10" xfId="29"/>
-    <cellStyle name="Обычный 2 25 2 2 168 2 51" xfId="28"/>
-    <cellStyle name="Обычный 2 25 2 2 17" xfId="3"/>
-    <cellStyle name="Обычный 2 25 2 2 17 147" xfId="17"/>
-    <cellStyle name="Обычный 2 25 2 2 17 24 2 13" xfId="10"/>
-    <cellStyle name="Обычный 2 25 2 2 17 24 2 13 81" xfId="19"/>
-    <cellStyle name="Обычный 2 3" xfId="33"/>
-    <cellStyle name="Обычный 2 35 3 2" xfId="5"/>
-    <cellStyle name="Обычный 2 35 3 2 186" xfId="22"/>
-    <cellStyle name="Обычный 2 44 2 2" xfId="9"/>
-    <cellStyle name="Обычный 2 44 2 2 187" xfId="26"/>
-    <cellStyle name="Обычный 2 61 2 2" xfId="8"/>
-    <cellStyle name="Обычный 2 61 2 2 188" xfId="25"/>
-    <cellStyle name="Обычный 2 65 5 31" xfId="13"/>
-    <cellStyle name="Обычный 2 65 5 31 2" xfId="21"/>
-    <cellStyle name="Обычный 2 76 2 2" xfId="4"/>
-    <cellStyle name="Обычный 2 76 2 2 202" xfId="18"/>
-    <cellStyle name="Обычный 2 76 2 2 64" xfId="12"/>
-    <cellStyle name="Обычный 2 76 2 2 64 81" xfId="24"/>
-    <cellStyle name="Обычный 2 76 34" xfId="7"/>
-    <cellStyle name="Обычный 2 76 34 151" xfId="23"/>
-    <cellStyle name="Обычный 2 76 34 151 61" xfId="30"/>
-    <cellStyle name="Обычный 3 3" xfId="32"/>
+    <cellStyle name="Обычный 2 16 3 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Обычный 2 16 3 2 173" xfId="15" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Обычный 2 16 3 2 25 17" xfId="14" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Обычный 2 16 3 2 38 2 13" xfId="11" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Обычный 2 16 3 2 38 2 13 81" xfId="20" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Обычный 2 25 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Обычный 2 25 2 2 168 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Обычный 2 25 2 2 168 2 47" xfId="27" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Обычный 2 25 2 2 168 2 47 10" xfId="29" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Обычный 2 25 2 2 168 2 51" xfId="28" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Обычный 2 25 2 2 17" xfId="3" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Обычный 2 25 2 2 17 147" xfId="17" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Обычный 2 25 2 2 17 24 2 13" xfId="10" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Обычный 2 25 2 2 17 24 2 13 81" xfId="19" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Обычный 2 3" xfId="33" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Обычный 2 35 3 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Обычный 2 35 3 2 186" xfId="22" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Обычный 2 44 2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Обычный 2 44 2 2 187" xfId="26" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Обычный 2 61 2 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Обычный 2 61 2 2 188" xfId="25" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Обычный 2 65 5 31" xfId="13" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Обычный 2 65 5 31 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Обычный 2 76 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Обычный 2 76 2 2 202" xfId="18" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Обычный 2 76 2 2 64" xfId="12" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Обычный 2 76 2 2 64 81" xfId="24" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Обычный 2 76 34" xfId="7" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Обычный 2 76 34 151" xfId="23" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Обычный 2 76 34 151 61" xfId="30" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Обычный 3 3" xfId="32" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1413,6 +1766,26 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
@@ -1478,7 +1851,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1510,9 +1883,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1544,6 +1935,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1719,46 +2128,673 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AT9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30.85546875" style="57" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" style="57" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="57" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="31" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" style="31" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="31" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="31" customWidth="1"/>
+    <col min="8" max="8" width="66.140625" style="31" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" style="25" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="25" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" style="25" customWidth="1"/>
+    <col min="12" max="13" width="10.5703125" style="33" customWidth="1"/>
+    <col min="14" max="15" width="13.85546875" style="25" customWidth="1"/>
+    <col min="16" max="25" width="12.42578125" style="25" customWidth="1"/>
+    <col min="26" max="26" width="6.140625" style="34" customWidth="1"/>
+    <col min="27" max="27" width="9.5703125" style="34" customWidth="1"/>
+    <col min="28" max="28" width="8.42578125" style="59" customWidth="1"/>
+    <col min="29" max="29" width="7.7109375" style="59" customWidth="1"/>
+    <col min="30" max="32" width="7.28515625" style="59" customWidth="1"/>
+    <col min="33" max="33" width="7.5703125" style="25" customWidth="1"/>
+    <col min="34" max="34" width="11" style="25" customWidth="1"/>
+    <col min="35" max="35" width="6.140625" style="25" customWidth="1"/>
+    <col min="36" max="36" width="7.28515625" style="26" customWidth="1"/>
+    <col min="37" max="37" width="6.7109375" style="26" customWidth="1"/>
+    <col min="38" max="38" width="8.140625" style="27" customWidth="1"/>
+    <col min="39" max="39" width="7.5703125" style="28" customWidth="1"/>
+    <col min="40" max="40" width="9.42578125" style="29" customWidth="1"/>
+    <col min="41" max="42" width="9.42578125" style="26" customWidth="1"/>
+    <col min="43" max="44" width="9.140625" style="30"/>
+    <col min="45" max="45" width="13.140625" style="30" customWidth="1"/>
+    <col min="46" max="16384" width="9.140625" style="31"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:46" s="35" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="97"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="101"/>
+      <c r="U1" s="102"/>
+      <c r="V1" s="102"/>
+      <c r="W1" s="103"/>
+      <c r="X1" s="103"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="104"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="62"/>
+      <c r="AH1" s="62"/>
+      <c r="AI1" s="25"/>
+      <c r="AJ1" s="34"/>
+      <c r="AK1" s="34"/>
+      <c r="AL1" s="98" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM1" s="105"/>
+      <c r="AN1" s="105"/>
+      <c r="AO1" s="106"/>
+      <c r="AQ1" s="39"/>
+      <c r="AR1" s="39"/>
+      <c r="AS1" s="39"/>
+    </row>
+    <row r="2" spans="1:46" s="25" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="108" t="s">
+        <v>234</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="J2" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="M2" s="79"/>
+      <c r="N2" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="P2" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q2" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="R2" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="S2" s="43"/>
+      <c r="T2" s="101" t="s">
+        <v>245</v>
+      </c>
+      <c r="U2" s="102" t="s">
+        <v>246</v>
+      </c>
+      <c r="V2" s="102" t="s">
+        <v>246</v>
+      </c>
+      <c r="W2" s="43" t="s">
+        <v>247</v>
+      </c>
+      <c r="X2" s="101" t="s">
+        <v>248</v>
+      </c>
+      <c r="Y2" s="43"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="104"/>
+      <c r="AB2" s="59"/>
+      <c r="AC2" s="59"/>
+      <c r="AD2" s="59"/>
+      <c r="AE2" s="59"/>
+      <c r="AF2" s="59"/>
+      <c r="AG2" s="69"/>
+      <c r="AH2" s="69"/>
+      <c r="AI2" s="41" t="s">
+        <v>249</v>
+      </c>
+      <c r="AJ2" s="44"/>
+      <c r="AK2" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="AL2" s="99" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM2" s="105"/>
+      <c r="AN2" s="106"/>
+      <c r="AQ2" s="110" t="s">
+        <v>97</v>
+      </c>
+      <c r="AR2" s="106"/>
+    </row>
+    <row r="3" spans="1:46" s="25" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="111"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="L3" s="113"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="113"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="116"/>
+      <c r="R3" s="116"/>
+      <c r="S3" s="117"/>
+      <c r="T3" s="101"/>
+      <c r="U3" s="102"/>
+      <c r="V3" s="102"/>
+      <c r="W3" s="117"/>
+      <c r="X3" s="101"/>
+      <c r="Y3" s="117"/>
+      <c r="Z3" s="114"/>
+      <c r="AA3" s="104"/>
+      <c r="AB3" s="59"/>
+      <c r="AC3" s="59"/>
+      <c r="AD3" s="59"/>
+      <c r="AE3" s="59"/>
+      <c r="AF3" s="59"/>
+      <c r="AG3" s="69"/>
+      <c r="AH3" s="69"/>
+      <c r="AI3" s="116"/>
+      <c r="AJ3" s="44"/>
+      <c r="AK3" s="118"/>
+      <c r="AL3" s="119"/>
+      <c r="AM3" s="120"/>
+      <c r="AN3" s="78"/>
+      <c r="AQ3" s="121"/>
+      <c r="AR3" s="78"/>
+    </row>
+    <row r="4" spans="1:46" s="25" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="111"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="113"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
+      <c r="L4" s="113"/>
+      <c r="M4" s="78"/>
+      <c r="N4" s="114"/>
+      <c r="O4" s="113"/>
+      <c r="P4" s="115"/>
+      <c r="Q4" s="116"/>
+      <c r="R4" s="116"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="101"/>
+      <c r="U4" s="102"/>
+      <c r="V4" s="102"/>
+      <c r="W4" s="117"/>
+      <c r="X4" s="101"/>
+      <c r="Y4" s="117"/>
+      <c r="Z4" s="114"/>
+      <c r="AA4" s="104"/>
+      <c r="AB4" s="59"/>
+      <c r="AC4" s="59"/>
+      <c r="AD4" s="59"/>
+      <c r="AE4" s="59"/>
+      <c r="AF4" s="59"/>
+      <c r="AG4" s="69"/>
+      <c r="AH4" s="69"/>
+      <c r="AI4" s="116"/>
+      <c r="AJ4" s="44"/>
+      <c r="AK4" s="118"/>
+      <c r="AL4" s="119"/>
+      <c r="AM4" s="120"/>
+      <c r="AN4" s="78"/>
+      <c r="AQ4" s="121"/>
+      <c r="AR4" s="78"/>
+    </row>
+    <row r="5" spans="1:46" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="122" t="s">
+        <v>251</v>
+      </c>
+      <c r="B5" s="123" t="s">
+        <v>252</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="46" t="s">
+        <v>193</v>
+      </c>
+      <c r="G5" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5" s="46" t="s">
+        <v>253</v>
+      </c>
+      <c r="I5" s="46" t="s">
+        <v>199</v>
+      </c>
+      <c r="J5" s="46" t="s">
+        <v>200</v>
+      </c>
+      <c r="K5" s="124" t="s">
+        <v>254</v>
+      </c>
+      <c r="L5" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" s="125" t="s">
+        <v>255</v>
+      </c>
+      <c r="N5" s="46" t="s">
+        <v>256</v>
+      </c>
+      <c r="O5" s="125" t="s">
+        <v>257</v>
+      </c>
+      <c r="P5" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q5" s="46" t="s">
+        <v>106</v>
+      </c>
+      <c r="R5" s="46" t="s">
+        <v>183</v>
+      </c>
+      <c r="S5" s="124" t="s">
+        <v>258</v>
+      </c>
+      <c r="T5" s="124" t="s">
+        <v>259</v>
+      </c>
+      <c r="U5" s="124" t="s">
+        <v>260</v>
+      </c>
+      <c r="V5" s="124" t="s">
+        <v>164</v>
+      </c>
+      <c r="W5" s="124" t="s">
+        <v>261</v>
+      </c>
+      <c r="X5" s="124" t="s">
+        <v>262</v>
+      </c>
+      <c r="Y5" s="124" t="s">
+        <v>263</v>
+      </c>
+      <c r="Z5" s="46" t="s">
+        <v>264</v>
+      </c>
+      <c r="AA5" s="46" t="s">
+        <v>265</v>
+      </c>
+      <c r="AB5" s="60" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC5" s="60" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD5" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE5" s="124" t="s">
+        <v>266</v>
+      </c>
+      <c r="AF5" s="124" t="s">
+        <v>267</v>
+      </c>
+      <c r="AG5" s="126" t="s">
+        <v>268</v>
+      </c>
+      <c r="AH5" s="126" t="s">
+        <v>269</v>
+      </c>
+      <c r="AI5" s="126" t="s">
+        <v>270</v>
+      </c>
+      <c r="AJ5" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="AK5" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL5" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM5" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="AN5" s="53" t="s">
+        <v>203</v>
+      </c>
+      <c r="AO5" s="54" t="s">
+        <v>204</v>
+      </c>
+      <c r="AP5" s="124" t="s">
+        <v>271</v>
+      </c>
+      <c r="AQ5" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="AR5" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="AS5" s="124" t="s">
+        <v>272</v>
+      </c>
+      <c r="AT5" s="127" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="6" spans="1:46" s="25" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B6" s="69"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="108" t="s">
+        <v>234</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F6" s="109"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="J6" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="K6" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="M6" s="79"/>
+      <c r="N6" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="P6" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q6" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="R6" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="S6" s="43"/>
+      <c r="T6" s="101" t="s">
+        <v>245</v>
+      </c>
+      <c r="U6" s="102" t="s">
+        <v>246</v>
+      </c>
+      <c r="V6" s="102" t="s">
+        <v>246</v>
+      </c>
+      <c r="W6" s="43" t="s">
+        <v>247</v>
+      </c>
+      <c r="X6" s="101" t="s">
+        <v>248</v>
+      </c>
+      <c r="Y6" s="43"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="104"/>
+      <c r="AB6" s="59"/>
+      <c r="AC6" s="59"/>
+      <c r="AD6" s="59"/>
+      <c r="AE6" s="59"/>
+      <c r="AF6" s="59"/>
+      <c r="AG6" s="69"/>
+      <c r="AH6" s="69"/>
+      <c r="AI6" s="41" t="s">
+        <v>249</v>
+      </c>
+      <c r="AJ6" s="44"/>
+      <c r="AK6" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="AL6" s="99" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM6" s="105"/>
+      <c r="AN6" s="106"/>
+      <c r="AQ6" s="110" t="s">
+        <v>97</v>
+      </c>
+      <c r="AR6" s="106"/>
+    </row>
+    <row r="7" spans="1:46" s="143" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="128"/>
+      <c r="B7" s="129"/>
+      <c r="C7" s="130"/>
+      <c r="D7" s="131"/>
+      <c r="E7" s="131"/>
+      <c r="F7" s="131"/>
+      <c r="G7" s="132"/>
+      <c r="H7" s="133"/>
+      <c r="I7" s="131"/>
+      <c r="J7" s="133" t="s">
+        <v>275</v>
+      </c>
+      <c r="K7" s="133" t="s">
+        <v>254</v>
+      </c>
+      <c r="L7" s="134" t="s">
+        <v>276</v>
+      </c>
+      <c r="M7" s="134" t="s">
+        <v>255</v>
+      </c>
+      <c r="N7" s="133" t="s">
+        <v>277</v>
+      </c>
+      <c r="O7" s="134" t="s">
+        <v>278</v>
+      </c>
+      <c r="P7" s="133" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q7" s="133" t="s">
+        <v>106</v>
+      </c>
+      <c r="R7" s="133" t="s">
+        <v>183</v>
+      </c>
+      <c r="S7" s="133" t="s">
+        <v>258</v>
+      </c>
+      <c r="T7" s="133" t="s">
+        <v>259</v>
+      </c>
+      <c r="U7" s="133" t="s">
+        <v>280</v>
+      </c>
+      <c r="V7" s="133" t="s">
+        <v>164</v>
+      </c>
+      <c r="W7" s="133" t="s">
+        <v>261</v>
+      </c>
+      <c r="X7" s="133" t="s">
+        <v>262</v>
+      </c>
+      <c r="Y7" s="133" t="s">
+        <v>263</v>
+      </c>
+      <c r="Z7" s="133" t="s">
+        <v>281</v>
+      </c>
+      <c r="AA7" s="133" t="s">
+        <v>282</v>
+      </c>
+      <c r="AB7" s="135" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC7" s="135" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD7" s="135" t="s">
+        <v>283</v>
+      </c>
+      <c r="AE7" s="136" t="s">
+        <v>284</v>
+      </c>
+      <c r="AF7" s="136" t="s">
+        <v>285</v>
+      </c>
+      <c r="AG7" s="137"/>
+      <c r="AH7" s="137"/>
+      <c r="AI7" s="131"/>
+      <c r="AJ7" s="138"/>
+      <c r="AK7" s="138"/>
+      <c r="AL7" s="139"/>
+      <c r="AM7" s="140"/>
+      <c r="AN7" s="141"/>
+      <c r="AO7" s="138"/>
+      <c r="AP7" s="138"/>
+      <c r="AQ7" s="139"/>
+      <c r="AR7" s="139"/>
+      <c r="AS7" s="139"/>
+      <c r="AT7" s="142"/>
+    </row>
+    <row r="8" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="C8" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="88" t="s">
+        <v>231</v>
+      </c>
+      <c r="G8" s="96" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="9" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="C9" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="88" t="s">
+        <v>231</v>
+      </c>
+      <c r="G9" s="97" t="s">
+        <v>233</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="AL1:AO1"/>
+    <mergeCell ref="AL2:AN2"/>
+    <mergeCell ref="AQ2:AR2"/>
+    <mergeCell ref="AL6:AN6"/>
+    <mergeCell ref="AQ6:AR6"/>
+  </mergeCells>
+  <conditionalFormatting sqref="P2:P4">
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P6">
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42:F43"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42:F43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="57" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="57" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" style="31" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" style="31" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" style="31" customWidth="1"/>
-    <col min="7" max="7" width="55.88671875" style="31" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" style="25" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" style="25" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" style="25" customWidth="1"/>
-    <col min="11" max="11" width="10.5546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.88671875" style="25" customWidth="1"/>
-    <col min="13" max="15" width="12.44140625" style="25" customWidth="1"/>
-    <col min="16" max="16" width="6.109375" style="34" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="4.109375" style="25" customWidth="1"/>
-    <col min="19" max="19" width="7.44140625" style="59" customWidth="1"/>
-    <col min="20" max="20" width="7.6640625" style="59" customWidth="1"/>
-    <col min="21" max="21" width="7.33203125" style="59" customWidth="1"/>
-    <col min="22" max="22" width="6.109375" style="25" customWidth="1"/>
-    <col min="23" max="23" width="11.88671875" style="31" customWidth="1"/>
-    <col min="24" max="24" width="7.33203125" style="26" customWidth="1"/>
-    <col min="25" max="25" width="6.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.5546875" style="28" customWidth="1"/>
-    <col min="28" max="28" width="9.44140625" style="29" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.44140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="9.109375" style="30"/>
-    <col min="32" max="16384" width="9.109375" style="31"/>
+    <col min="2" max="2" width="12.7109375" style="57" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="31" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" style="31" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="31" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="31" customWidth="1"/>
+    <col min="7" max="7" width="55.85546875" style="31" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="25" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="25" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="25" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" style="33" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" style="25" customWidth="1"/>
+    <col min="13" max="15" width="12.42578125" style="25" customWidth="1"/>
+    <col min="16" max="16" width="6.140625" style="34" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="4.140625" style="25" customWidth="1"/>
+    <col min="19" max="19" width="7.42578125" style="59" customWidth="1"/>
+    <col min="20" max="20" width="7.7109375" style="59" customWidth="1"/>
+    <col min="21" max="21" width="7.28515625" style="59" customWidth="1"/>
+    <col min="22" max="22" width="6.140625" style="25" customWidth="1"/>
+    <col min="23" max="23" width="11.85546875" style="31" customWidth="1"/>
+    <col min="24" max="24" width="7.28515625" style="26" customWidth="1"/>
+    <col min="25" max="25" width="6.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.5703125" style="28" customWidth="1"/>
+    <col min="28" max="28" width="9.42578125" style="29" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.42578125" style="26" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="9.140625" style="30"/>
+    <col min="32" max="16384" width="9.140625" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" ht="13.5" customHeight="1">
+    <row r="1" spans="2:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="92"/>
       <c r="C1" s="21"/>
       <c r="D1" s="21"/>
@@ -1782,62 +2818,62 @@
       <c r="T1" s="58"/>
       <c r="W1" s="21"/>
     </row>
-    <row r="2" spans="2:23" ht="13.5" customHeight="1">
+    <row r="2" spans="2:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M2" s="66" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="2:23" ht="13.5" customHeight="1">
+    <row r="3" spans="2:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M3" s="66" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="4" spans="2:23" ht="13.5" customHeight="1">
+    <row r="4" spans="2:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M4" s="66" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="5" spans="2:23" ht="13.5" customHeight="1">
+    <row r="5" spans="2:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M5" s="66" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="2:23" ht="13.5" customHeight="1">
+    <row r="6" spans="2:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M6" s="66" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="7" spans="2:23" ht="13.5" customHeight="1">
+    <row r="7" spans="2:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M7" s="66" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="8" spans="2:23" ht="13.5" customHeight="1">
+    <row r="8" spans="2:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M8" s="66" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="9" spans="2:23" ht="13.5" customHeight="1">
+    <row r="9" spans="2:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M9" s="66" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="2:23" ht="13.5" customHeight="1">
+    <row r="10" spans="2:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M10" s="67" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="11" spans="2:23" ht="13.5" customHeight="1">
+    <row r="11" spans="2:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M11" s="67" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="12" spans="2:23" ht="13.5" customHeight="1">
+    <row r="12" spans="2:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M12" s="7" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="2:23" ht="13.5" customHeight="1">
+    <row r="13" spans="2:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J13" s="70" t="s">
         <v>195</v>
       </c>
@@ -1845,7 +2881,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="2:23" ht="13.5" customHeight="1">
+    <row r="14" spans="2:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J14" s="70" t="s">
         <v>196</v>
       </c>
@@ -1857,7 +2893,7 @@
       </c>
       <c r="O14" s="68"/>
     </row>
-    <row r="15" spans="2:23" ht="13.5" customHeight="1">
+    <row r="15" spans="2:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J15" s="17" t="s">
         <v>197</v>
       </c>
@@ -1869,7 +2905,7 @@
       </c>
       <c r="O15" s="68"/>
     </row>
-    <row r="16" spans="2:23" ht="13.5" customHeight="1">
+    <row r="16" spans="2:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J16" s="76" t="s">
         <v>198</v>
       </c>
@@ -1881,7 +2917,7 @@
       </c>
       <c r="O16" s="68"/>
     </row>
-    <row r="17" spans="1:31" ht="13.5" customHeight="1">
+    <row r="17" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="32" t="s">
         <v>224</v>
       </c>
@@ -1899,7 +2935,7 @@
       </c>
       <c r="O17" s="68"/>
     </row>
-    <row r="18" spans="1:31" ht="13.5" customHeight="1">
+    <row r="18" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="90" t="s">
         <v>222</v>
       </c>
@@ -1917,7 +2953,7 @@
       </c>
       <c r="O18" s="68"/>
     </row>
-    <row r="19" spans="1:31" ht="13.5" customHeight="1">
+    <row r="19" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="32" t="s">
         <v>220</v>
       </c>
@@ -1934,7 +2970,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="20" spans="1:31" ht="13.5" customHeight="1">
+    <row r="20" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="87" t="s">
         <v>218</v>
       </c>
@@ -1951,7 +2987,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="1:31" ht="13.5" customHeight="1">
+    <row r="21" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="32" t="s">
         <v>0</v>
       </c>
@@ -1968,7 +3004,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="22" spans="1:31" ht="13.5" customHeight="1">
+    <row r="22" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="32" t="s">
         <v>2</v>
       </c>
@@ -1986,7 +3022,7 @@
       </c>
       <c r="W22" s="83"/>
     </row>
-    <row r="23" spans="1:31" ht="13.5" customHeight="1">
+    <row r="23" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="32" t="s">
         <v>4</v>
       </c>
@@ -2004,7 +3040,7 @@
       </c>
       <c r="W23" s="83"/>
     </row>
-    <row r="24" spans="1:31" ht="13.5" customHeight="1">
+    <row r="24" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="32" t="s">
         <v>227</v>
       </c>
@@ -2022,7 +3058,7 @@
       </c>
       <c r="W24" s="83"/>
     </row>
-    <row r="25" spans="1:31" ht="13.5" customHeight="1">
+    <row r="25" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="32" t="s">
         <v>6</v>
       </c>
@@ -2040,7 +3076,7 @@
       </c>
       <c r="W25" s="83"/>
     </row>
-    <row r="26" spans="1:31" ht="13.5" customHeight="1">
+    <row r="26" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="32" t="s">
         <v>8</v>
       </c>
@@ -2061,7 +3097,7 @@
       </c>
       <c r="W26" s="83"/>
     </row>
-    <row r="27" spans="1:31" ht="13.5" customHeight="1">
+    <row r="27" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="32" t="s">
         <v>10</v>
       </c>
@@ -2082,7 +3118,7 @@
       </c>
       <c r="W27" s="83"/>
     </row>
-    <row r="28" spans="1:31" s="35" customFormat="1" ht="13.5" customHeight="1">
+    <row r="28" spans="1:31" s="35" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="80"/>
       <c r="B28" s="80"/>
       <c r="C28" s="32" t="s">
@@ -2124,7 +3160,7 @@
       <c r="AD28" s="39"/>
       <c r="AE28" s="39"/>
     </row>
-    <row r="29" spans="1:31" s="35" customFormat="1" ht="13.5" customHeight="1">
+    <row r="29" spans="1:31" s="35" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="80"/>
       <c r="B29" s="80"/>
       <c r="C29" s="32" t="s">
@@ -2166,7 +3202,7 @@
       <c r="AD29" s="39"/>
       <c r="AE29" s="39"/>
     </row>
-    <row r="30" spans="1:31" s="35" customFormat="1" ht="13.5" customHeight="1">
+    <row r="30" spans="1:31" s="35" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="80"/>
       <c r="B30" s="80"/>
       <c r="C30" s="32" t="s">
@@ -2208,7 +3244,7 @@
       <c r="AD30" s="39"/>
       <c r="AE30" s="39"/>
     </row>
-    <row r="31" spans="1:31" s="35" customFormat="1" ht="13.5" customHeight="1">
+    <row r="31" spans="1:31" s="35" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="80"/>
       <c r="B31" s="80"/>
       <c r="C31" s="32" t="s">
@@ -2252,7 +3288,7 @@
       <c r="AD31" s="39"/>
       <c r="AE31" s="39"/>
     </row>
-    <row r="32" spans="1:31" s="35" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
+    <row r="32" spans="1:31" s="35" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="80"/>
       <c r="B32" s="80"/>
       <c r="C32" s="32" t="s">
@@ -2296,7 +3332,7 @@
       <c r="AD32" s="39"/>
       <c r="AE32" s="39"/>
     </row>
-    <row r="33" spans="1:32" s="35" customFormat="1" ht="13.5" customHeight="1">
+    <row r="33" spans="1:32" s="35" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="80"/>
       <c r="B33" s="80"/>
       <c r="C33" s="32" t="s">
@@ -2340,7 +3376,7 @@
       <c r="AD33" s="39"/>
       <c r="AE33" s="39"/>
     </row>
-    <row r="34" spans="1:32" s="35" customFormat="1" ht="13.5" customHeight="1">
+    <row r="34" spans="1:32" s="35" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="80"/>
       <c r="B34" s="80"/>
       <c r="C34" s="32" t="s">
@@ -2388,7 +3424,7 @@
       <c r="AD34" s="39"/>
       <c r="AE34" s="39"/>
     </row>
-    <row r="35" spans="1:32" s="35" customFormat="1" ht="13.5" customHeight="1">
+    <row r="35" spans="1:32" s="35" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="80"/>
       <c r="B35" s="80"/>
       <c r="C35" s="32" t="s">
@@ -2436,7 +3472,7 @@
       <c r="AD35" s="39"/>
       <c r="AE35" s="39"/>
     </row>
-    <row r="36" spans="1:32" s="35" customFormat="1" ht="13.5" customHeight="1">
+    <row r="36" spans="1:32" s="35" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="80"/>
       <c r="B36" s="80"/>
       <c r="C36" s="32" t="s">
@@ -2484,7 +3520,7 @@
       <c r="AD36" s="39"/>
       <c r="AE36" s="39"/>
     </row>
-    <row r="37" spans="1:32" s="35" customFormat="1" ht="13.5" customHeight="1">
+    <row r="37" spans="1:32" s="35" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="81"/>
       <c r="B37" s="81"/>
       <c r="C37" s="32" t="s">
@@ -2541,7 +3577,7 @@
       <c r="AD37" s="39"/>
       <c r="AE37" s="39"/>
     </row>
-    <row r="38" spans="1:32" s="35" customFormat="1" ht="13.5" customHeight="1">
+    <row r="38" spans="1:32" s="35" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>208</v>
       </c>
@@ -2599,7 +3635,7 @@
       <c r="AD38" s="39"/>
       <c r="AE38" s="39"/>
     </row>
-    <row r="39" spans="1:32" s="35" customFormat="1" ht="13.5" customHeight="1">
+    <row r="39" spans="1:32" s="35" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>209</v>
       </c>
@@ -2648,16 +3684,16 @@
       <c r="Y39" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="Z39" s="96" t="s">
+      <c r="Z39" s="98" t="s">
         <v>59</v>
       </c>
-      <c r="AA39" s="96"/>
-      <c r="AB39" s="96"/>
-      <c r="AC39" s="96"/>
+      <c r="AA39" s="98"/>
+      <c r="AB39" s="98"/>
+      <c r="AC39" s="98"/>
       <c r="AD39" s="39"/>
       <c r="AE39" s="39"/>
     </row>
-    <row r="40" spans="1:32" s="35" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
+    <row r="40" spans="1:32" s="35" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>210</v>
       </c>
@@ -2713,17 +3749,17 @@
       <c r="Y40" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="Z40" s="97" t="s">
+      <c r="Z40" s="99" t="s">
         <v>68</v>
       </c>
-      <c r="AA40" s="97"/>
-      <c r="AB40" s="97"/>
-      <c r="AD40" s="98" t="s">
+      <c r="AA40" s="99"/>
+      <c r="AB40" s="99"/>
+      <c r="AD40" s="100" t="s">
         <v>97</v>
       </c>
-      <c r="AE40" s="98"/>
-    </row>
-    <row r="41" spans="1:32" ht="47.25" customHeight="1">
+      <c r="AE40" s="100"/>
+    </row>
+    <row r="41" spans="1:32" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="45" t="s">
         <v>207</v>
       </c>
@@ -2821,7 +3857,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="42" spans="1:32" s="56" customFormat="1" ht="13.5" customHeight="1">
+    <row r="42" spans="1:32" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="32" t="s">
         <v>229</v>
@@ -2836,7 +3872,7 @@
       <c r="E42" s="88" t="s">
         <v>231</v>
       </c>
-      <c r="F42" s="99" t="s">
+      <c r="F42" s="96" t="s">
         <v>232</v>
       </c>
       <c r="G42" s="9"/>
@@ -2883,7 +3919,7 @@
         <v>ок</v>
       </c>
     </row>
-    <row r="43" spans="1:32" s="56" customFormat="1" ht="13.5" customHeight="1">
+    <row r="43" spans="1:32" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="32" t="s">
         <v>229</v>
@@ -2898,7 +3934,7 @@
       <c r="E43" s="88" t="s">
         <v>231</v>
       </c>
-      <c r="F43" s="100" t="s">
+      <c r="F43" s="97" t="s">
         <v>233</v>
       </c>
       <c r="G43" s="9"/>
@@ -2945,7 +3981,7 @@
         <v>ок</v>
       </c>
     </row>
-    <row r="44" spans="1:32" s="56" customFormat="1" ht="13.5" customHeight="1">
+    <row r="44" spans="1:32" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="32"/>
       <c r="C44" s="32"/>
@@ -2999,7 +4035,7 @@
         <v>ок</v>
       </c>
     </row>
-    <row r="45" spans="1:32" s="56" customFormat="1" ht="13.5" customHeight="1">
+    <row r="45" spans="1:32" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="32"/>
       <c r="C45" s="32"/>
@@ -3053,7 +4089,7 @@
         <v>ок</v>
       </c>
     </row>
-    <row r="46" spans="1:32" s="56" customFormat="1" ht="13.5" customHeight="1">
+    <row r="46" spans="1:32" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="32"/>
       <c r="C46" s="32"/>
@@ -3107,7 +4143,7 @@
         <v>ок</v>
       </c>
     </row>
-    <row r="47" spans="1:32" s="56" customFormat="1" ht="13.5" customHeight="1">
+    <row r="47" spans="1:32" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="32"/>
       <c r="C47" s="32"/>
@@ -3161,7 +4197,7 @@
         <v>ок</v>
       </c>
     </row>
-    <row r="48" spans="1:32" s="56" customFormat="1" ht="13.5" customHeight="1">
+    <row r="48" spans="1:32" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="32"/>
       <c r="C48" s="32"/>
@@ -3215,7 +4251,7 @@
         <v>ок</v>
       </c>
     </row>
-    <row r="49" spans="1:32" s="56" customFormat="1" ht="13.5" customHeight="1">
+    <row r="49" spans="1:32" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="32"/>
       <c r="C49" s="32"/>
@@ -3269,7 +4305,7 @@
         <v>ок</v>
       </c>
     </row>
-    <row r="50" spans="1:32" s="56" customFormat="1" ht="13.5" customHeight="1">
+    <row r="50" spans="1:32" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="32"/>
       <c r="C50" s="32"/>
@@ -3323,7 +4359,7 @@
         <v>ок</v>
       </c>
     </row>
-    <row r="51" spans="1:32" s="56" customFormat="1" ht="13.5" customHeight="1">
+    <row r="51" spans="1:32" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
       <c r="B51" s="32"/>
       <c r="C51" s="32"/>
@@ -3377,7 +4413,7 @@
         <v>ок</v>
       </c>
     </row>
-    <row r="52" spans="1:32" s="56" customFormat="1" ht="13.5" customHeight="1">
+    <row r="52" spans="1:32" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="32"/>
       <c r="C52" s="32"/>
@@ -3431,7 +4467,7 @@
         <v>ок</v>
       </c>
     </row>
-    <row r="53" spans="1:32" s="56" customFormat="1" ht="13.5" customHeight="1">
+    <row r="53" spans="1:32" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
       <c r="B53" s="32"/>
       <c r="C53" s="32"/>
@@ -3485,7 +4521,7 @@
         <v>ок</v>
       </c>
     </row>
-    <row r="54" spans="1:32" s="56" customFormat="1" ht="13.5" customHeight="1">
+    <row r="54" spans="1:32" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="B54" s="32"/>
       <c r="C54" s="32"/>
@@ -3539,7 +4575,7 @@
         <v>ок</v>
       </c>
     </row>
-    <row r="55" spans="1:32" s="56" customFormat="1" ht="13.5" customHeight="1">
+    <row r="55" spans="1:32" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3"/>
       <c r="B55" s="32"/>
       <c r="C55" s="32"/>
@@ -3593,7 +4629,7 @@
         <v>ок</v>
       </c>
     </row>
-    <row r="56" spans="1:32" s="56" customFormat="1" ht="13.5" customHeight="1">
+    <row r="56" spans="1:32" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
       <c r="B56" s="32"/>
       <c r="C56" s="32"/>
@@ -3647,7 +4683,7 @@
         <v>ок</v>
       </c>
     </row>
-    <row r="57" spans="1:32" s="56" customFormat="1" ht="13.5" customHeight="1">
+    <row r="57" spans="1:32" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
       <c r="B57" s="32"/>
       <c r="C57" s="32"/>
@@ -3701,7 +4737,7 @@
         <v>ок</v>
       </c>
     </row>
-    <row r="58" spans="1:32" s="56" customFormat="1" ht="13.5" customHeight="1">
+    <row r="58" spans="1:32" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
       <c r="B58" s="32"/>
       <c r="C58" s="32"/>
@@ -3755,7 +4791,7 @@
         <v>ок</v>
       </c>
     </row>
-    <row r="59" spans="1:32" s="56" customFormat="1" ht="13.5" customHeight="1">
+    <row r="59" spans="1:32" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
       <c r="B59" s="32"/>
       <c r="C59" s="32"/>
@@ -3809,7 +4845,7 @@
         <v>ок</v>
       </c>
     </row>
-    <row r="60" spans="1:32" s="56" customFormat="1" ht="13.5" customHeight="1">
+    <row r="60" spans="1:32" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
       <c r="B60" s="32"/>
       <c r="C60" s="32"/>
@@ -3863,7 +4899,7 @@
         <v>ок</v>
       </c>
     </row>
-    <row r="61" spans="1:32" s="56" customFormat="1" ht="13.5" customHeight="1">
+    <row r="61" spans="1:32" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
       <c r="B61" s="32"/>
       <c r="C61" s="32"/>
@@ -3917,7 +4953,7 @@
         <v>ок</v>
       </c>
     </row>
-    <row r="62" spans="1:32" s="56" customFormat="1" ht="13.5" customHeight="1">
+    <row r="62" spans="1:32" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
       <c r="B62" s="32"/>
       <c r="C62" s="32"/>
@@ -3971,7 +5007,7 @@
         <v>ок</v>
       </c>
     </row>
-    <row r="63" spans="1:32" s="56" customFormat="1" ht="13.5" customHeight="1">
+    <row r="63" spans="1:32" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
       <c r="B63" s="32"/>
       <c r="C63" s="32"/>
@@ -4025,7 +5061,7 @@
         <v>ок</v>
       </c>
     </row>
-    <row r="64" spans="1:32" s="56" customFormat="1" ht="13.5" customHeight="1">
+    <row r="64" spans="1:32" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
       <c r="B64" s="32"/>
       <c r="C64" s="32"/>
@@ -4099,26 +5135,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
